--- a/Cosas que llegan de mercado/Nota 9.xlsx
+++ b/Cosas que llegan de mercado/Nota 9.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis\Documents\GitHub\Motozom\Cosas que llegan de mercado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\Cosas que llegan de mercado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EC2AC2-A3F1-4B2B-AF98-56D1B0F741D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+  <si>
+    <t>SI</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,7 +99,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -128,7 +143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -166,7 +187,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -204,7 +231,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -492,45 +525,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K3:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="K3:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
         <v>350</v>
       </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
         <v>350</v>
       </c>
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K32">
         <v>2</v>
       </c>
       <c r="L32">
         <v>350</v>
       </c>
+      <c r="M32" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
         <v>1250</v>
+      </c>
+      <c r="M51" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
